--- a/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
+++ b/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="155">
   <si>
     <t>TestCases</t>
   </si>
@@ -48,433 +48,439 @@
     <t>Welcome1</t>
   </si>
   <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id='mainMenu:menuBarEnroll:business:out']</t>
+  </si>
+  <si>
+    <t>BusinessManagerlink</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:tree:n-root:AUTO_03192']</t>
+  </si>
+  <si>
+    <t>Agreementslink</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:tree:n-0:AUTO_03192']</t>
+  </si>
+  <si>
+    <t>commonagreementlink</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:tree:n-0-1:AUTO_03192']</t>
+  </si>
+  <si>
+    <t>enrollmenteligibilitylink</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:tree:n-0-1-0:AUTO_03192']</t>
+  </si>
+  <si>
+    <t>Beneeligibilitylink</t>
+  </si>
+  <si>
+    <t>//*[@id='searchAgreement:incSearchAgreement:code']</t>
+  </si>
+  <si>
+    <t>beneeleigibilityagreementsearch</t>
+  </si>
+  <si>
+    <t>//*[@id='searchAgreement:incSearchAgreement:searchButton']</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>beneeleigibiltyaddbutton</t>
+  </si>
+  <si>
+    <t>//*[@id='searchAgreement:incSearchAgreement:addButton']</t>
+  </si>
+  <si>
+    <t>hostedcarrierdp</t>
+  </si>
+  <si>
+    <t>bookofbusinessdp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:selectedHostedCarrier']</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:selectedBookOfBusiness']</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>agreementsearchcodefield</t>
+  </si>
+  <si>
+    <t>agreementaddcodefield</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementCode']</t>
+  </si>
+  <si>
+    <t>agreementadddescription</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementDescription']</t>
+  </si>
+  <si>
+    <t>beneligibilitystatusdp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementStatus']</t>
+  </si>
+  <si>
+    <t>waitingperiodtext</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:waitingPeriod']</t>
+  </si>
+  <si>
+    <t>waitingperioddp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:waitingPeriodMenu']</t>
+  </si>
+  <si>
+    <t>startdatecalculation</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:startDateCalculation']</t>
+  </si>
+  <si>
+    <t>terminationage</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:termAge']</t>
+  </si>
+  <si>
+    <t>Terminationdatecal</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:termDateCalculation']</t>
+  </si>
+  <si>
+    <t>depaddbutton</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:addEligibleDependents']</t>
+  </si>
+  <si>
+    <t>categorydp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:category']</t>
+  </si>
+  <si>
+    <t>subcategorydp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:subCategory']</t>
+  </si>
+  <si>
+    <t>qualificationprdtxt</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:qualificationPeriod']</t>
+  </si>
+  <si>
+    <t>qualificationprddp</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:qualificationPeriodMenu']</t>
+  </si>
+  <si>
+    <t>depterminatindatecal</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:terminationDateCalculation']</t>
+  </si>
+  <si>
+    <t>addtolistbutton</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:addToListButton']</t>
+  </si>
+  <si>
+    <t>beneligiagreesave</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:saveButton']</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>AUTO1A</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Sample Test</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Inforce</t>
+  </si>
+  <si>
+    <t>Waitingperiod</t>
+  </si>
+  <si>
+    <t>WaitingperiodDP</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>StartDatecal</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Term.Age</t>
+  </si>
+  <si>
+    <t>TermDatecal</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>SubCate</t>
+  </si>
+  <si>
+    <t>Qual Period</t>
+  </si>
+  <si>
+    <t>DepTerm age</t>
+  </si>
+  <si>
+    <t>DepTermcalDP</t>
+  </si>
+  <si>
+    <t>qual period dp</t>
+  </si>
+  <si>
+    <t>Medavie Blue Cross</t>
+  </si>
+  <si>
+    <t>dotest</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:terminationAge']</t>
+  </si>
+  <si>
+    <t>depenterminationagetxt</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>AUTO1B</t>
+  </si>
+  <si>
+    <t>https://securete.medavie.bluecross.ca/eai/login?uid=unauthenticated&amp;dst=https://securete.medavie.bluecross.ca/MAAX_PBA2SB/</t>
+  </si>
+  <si>
+    <t>loginid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//*[@id='username']</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>loginbtn</t>
+  </si>
+  <si>
+    <t>//*[@id='login_label']</t>
+  </si>
+  <si>
+    <t>Provisioncopy</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>provisiontree</t>
+  </si>
+  <si>
+    <t>LOBtreepopulation</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:provisonTree:n-root:AUTO_03195']</t>
+  </si>
+  <si>
+    <t>//div[@id='businessmanagerGateway:provisonTree']/div/div[2]/div/a/span</t>
+  </si>
+  <si>
+    <t>LifeLOB</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:provisonTree:n-0:AUTO_03195']</t>
+  </si>
+  <si>
+    <t>Member Life</t>
+  </si>
+  <si>
+    <t>//*[@id='searchProvision:incSearchProvision:searchButton']</t>
+  </si>
+  <si>
+    <t>provisionsearchbutton</t>
+  </si>
+  <si>
+    <t>searchcodefield</t>
+  </si>
+  <si>
+    <t>//*[@id='searchProvision:incSearchProvision:provisionCode']</t>
+  </si>
+  <si>
+    <t>searchresults</t>
+  </si>
+  <si>
+    <t>//table[@id='searchProvision:incSearchProvision:provisionSearchResultDataBean']/tbody/tr</t>
+  </si>
+  <si>
+    <t>copybutton</t>
+  </si>
+  <si>
+    <t>//*[@id='searchProvision:incSearchProvision:copyButton']</t>
+  </si>
+  <si>
+    <t>copypagecode</t>
+  </si>
+  <si>
+    <t>//*[@id='provision:incProvision:provisionCode']</t>
+  </si>
+  <si>
+    <t>copypagedesc</t>
+  </si>
+  <si>
+    <t>//*[@id='provision:incProvision:provisionDescription']</t>
+  </si>
+  <si>
+    <t>copysavestaybuton</t>
+  </si>
+  <si>
+    <t>//*[@id='provision:incProvision:savestayButton']</t>
+  </si>
+  <si>
+    <t>copypagestatus</t>
+  </si>
+  <si>
+    <t>//*[@id='provision:incProvision:status']</t>
+  </si>
+  <si>
+    <t>Successmess</t>
+  </si>
+  <si>
+    <t>Data Updated Successfully</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Income Replacement</t>
+  </si>
+  <si>
+    <t>DEC3015DESC</t>
+  </si>
+  <si>
+    <t>https://securein.medavie.bluecross.ca:3443/MAAX</t>
+  </si>
+  <si>
+    <t>AD&amp;D</t>
+  </si>
+  <si>
+    <t>Member AD&amp;D</t>
+  </si>
+  <si>
+    <t>//*[@id='provision:incProvision:j_id561']/tbody/tr/td/span</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>Optional AD&amp;D</t>
+  </si>
+  <si>
+    <t>Optional Member Life</t>
+  </si>
+  <si>
+    <t>Opt Spousal Life</t>
+  </si>
+  <si>
+    <t>Dependent Life</t>
+  </si>
+  <si>
+    <t>Optional Child Life</t>
+  </si>
+  <si>
+    <t>Critical Illness</t>
+  </si>
+  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>//*[@id='mainMenu:menuBarEnroll:business:out']</t>
-  </si>
-  <si>
-    <t>BusinessManagerlink</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:tree:n-root:AUTO_03192']</t>
-  </si>
-  <si>
-    <t>Agreementslink</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:tree:n-0:AUTO_03192']</t>
-  </si>
-  <si>
-    <t>commonagreementlink</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:tree:n-0-1:AUTO_03192']</t>
-  </si>
-  <si>
-    <t>enrollmenteligibilitylink</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:tree:n-0-1-0:AUTO_03192']</t>
-  </si>
-  <si>
-    <t>Beneeligibilitylink</t>
-  </si>
-  <si>
-    <t>//*[@id='searchAgreement:incSearchAgreement:code']</t>
-  </si>
-  <si>
-    <t>beneeleigibilityagreementsearch</t>
-  </si>
-  <si>
-    <t>//*[@id='searchAgreement:incSearchAgreement:searchButton']</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>beneeleigibiltyaddbutton</t>
-  </si>
-  <si>
-    <t>//*[@id='searchAgreement:incSearchAgreement:addButton']</t>
-  </si>
-  <si>
-    <t>hostedcarrierdp</t>
-  </si>
-  <si>
-    <t>bookofbusinessdp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:selectedHostedCarrier']</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:selectedBookOfBusiness']</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>agreementsearchcodefield</t>
-  </si>
-  <si>
-    <t>agreementaddcodefield</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementCode']</t>
-  </si>
-  <si>
-    <t>agreementadddescription</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementDescription']</t>
-  </si>
-  <si>
-    <t>beneligibilitystatusdp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:agreementStatus']</t>
-  </si>
-  <si>
-    <t>waitingperiodtext</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:waitingPeriod']</t>
-  </si>
-  <si>
-    <t>waitingperioddp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:waitingPeriodMenu']</t>
-  </si>
-  <si>
-    <t>startdatecalculation</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:startDateCalculation']</t>
-  </si>
-  <si>
-    <t>terminationage</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:termAge']</t>
-  </si>
-  <si>
-    <t>Terminationdatecal</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:termDateCalculation']</t>
-  </si>
-  <si>
-    <t>depaddbutton</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:addEligibleDependents']</t>
-  </si>
-  <si>
-    <t>categorydp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:category']</t>
-  </si>
-  <si>
-    <t>subcategorydp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:subCategory']</t>
-  </si>
-  <si>
-    <t>qualificationprdtxt</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:qualificationPeriod']</t>
-  </si>
-  <si>
-    <t>qualificationprddp</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:qualificationPeriodMenu']</t>
-  </si>
-  <si>
-    <t>depterminatindatecal</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:terminationDateCalculation']</t>
-  </si>
-  <si>
-    <t>addtolistbutton</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:addToListButton']</t>
-  </si>
-  <si>
-    <t>beneligiagreesave</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:saveButton']</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>AUTO1A</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Sample Test</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Inforce</t>
-  </si>
-  <si>
-    <t>Waitingperiod</t>
-  </si>
-  <si>
-    <t>WaitingperiodDP</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>StartDatecal</t>
-  </si>
-  <si>
-    <t>Exact</t>
-  </si>
-  <si>
-    <t>Term.Age</t>
-  </si>
-  <si>
-    <t>TermDatecal</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <t>SubCate</t>
-  </si>
-  <si>
-    <t>Qual Period</t>
-  </si>
-  <si>
-    <t>DepTerm age</t>
-  </si>
-  <si>
-    <t>DepTermcalDP</t>
-  </si>
-  <si>
-    <t>qual period dp</t>
-  </si>
-  <si>
-    <t>Medavie Blue Cross</t>
-  </si>
-  <si>
-    <t>dotest</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>//*[@id='benefitEligibilityAgreement:incBenefitEligibilityAgreement:terminationAge']</t>
-  </si>
-  <si>
-    <t>depenterminationagetxt</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>AUTO1B</t>
-  </si>
-  <si>
-    <t>https://securete.medavie.bluecross.ca/eai/login?uid=unauthenticated&amp;dst=https://securete.medavie.bluecross.ca/MAAX_PBA2SB/</t>
-  </si>
-  <si>
-    <t>loginid</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>//*[@id='username']</t>
-  </si>
-  <si>
-    <t>//*[@id='password']</t>
-  </si>
-  <si>
-    <t>loginbtn</t>
-  </si>
-  <si>
-    <t>//*[@id='login_label']</t>
-  </si>
-  <si>
-    <t>Provisioncopy</t>
-  </si>
-  <si>
-    <t>LOB</t>
-  </si>
-  <si>
-    <t>Benefit</t>
-  </si>
-  <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>provisiontree</t>
-  </si>
-  <si>
-    <t>LOBtreepopulation</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:provisonTree:n-root:AUTO_03195']</t>
-  </si>
-  <si>
-    <t>//div[@id='businessmanagerGateway:provisonTree']/div/div[2]/div/a/span</t>
-  </si>
-  <si>
-    <t>LifeLOB</t>
-  </si>
-  <si>
-    <t>//*[@id='businessmanagerGateway:provisonTree:n-0:AUTO_03195']</t>
-  </si>
-  <si>
-    <t>Member Life</t>
-  </si>
-  <si>
-    <t>//*[@id='searchProvision:incSearchProvision:searchButton']</t>
-  </si>
-  <si>
-    <t>provisionsearchbutton</t>
-  </si>
-  <si>
-    <t>searchcodefield</t>
-  </si>
-  <si>
-    <t>//*[@id='searchProvision:incSearchProvision:provisionCode']</t>
-  </si>
-  <si>
-    <t>searchresults</t>
-  </si>
-  <si>
-    <t>//table[@id='searchProvision:incSearchProvision:provisionSearchResultDataBean']/tbody/tr</t>
-  </si>
-  <si>
-    <t>copybutton</t>
-  </si>
-  <si>
-    <t>//*[@id='searchProvision:incSearchProvision:copyButton']</t>
-  </si>
-  <si>
-    <t>copypagecode</t>
-  </si>
-  <si>
-    <t>//*[@id='provision:incProvision:provisionCode']</t>
-  </si>
-  <si>
-    <t>copypagedesc</t>
-  </si>
-  <si>
-    <t>//*[@id='provision:incProvision:provisionDescription']</t>
-  </si>
-  <si>
-    <t>copysavestaybuton</t>
-  </si>
-  <si>
-    <t>//*[@id='provision:incProvision:savestayButton']</t>
-  </si>
-  <si>
-    <t>copypagestatus</t>
-  </si>
-  <si>
-    <t>//*[@id='provision:incProvision:status']</t>
-  </si>
-  <si>
-    <t>Successmess</t>
-  </si>
-  <si>
-    <t>Data Updated Successfully</t>
-  </si>
-  <si>
-    <t>STD</t>
-  </si>
-  <si>
-    <t>Income Replacement</t>
-  </si>
-  <si>
-    <t>DEC3015DESC</t>
-  </si>
-  <si>
-    <t>https://securein.medavie.bluecross.ca:3443/MAAX</t>
-  </si>
-  <si>
-    <t>AD&amp;D</t>
-  </si>
-  <si>
-    <t>Member AD&amp;D</t>
-  </si>
-  <si>
-    <t>//*[@id='provision:incProvision:j_id561']/tbody/tr/td/span</t>
-  </si>
-  <si>
-    <t>LTD</t>
-  </si>
-  <si>
-    <t>Optional AD&amp;D</t>
-  </si>
-  <si>
-    <t>Optional Member Life</t>
-  </si>
-  <si>
-    <t>Opt Spousal Life</t>
-  </si>
-  <si>
-    <t>Dependent Life</t>
-  </si>
-  <si>
-    <t>Optional Child Life</t>
-  </si>
-  <si>
-    <t>Critical Illness</t>
-  </si>
-  <si>
-    <t>DEC3024</t>
+    <t>AUTO1C</t>
+  </si>
+  <si>
+    <t>databasecheckTEST</t>
+  </si>
+  <si>
+    <t>DEC3025</t>
   </si>
 </sst>
 </file>
@@ -878,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,23 +909,31 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,52 +984,52 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="Q2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1023,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1032,52 +1046,52 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="U3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1085,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1094,128 +1108,238 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>99</v>
       </c>
-      <c r="U4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" t="s">
         <v>92</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="N7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>89</v>
+      <c r="Q7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1223,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1232,57 +1356,63 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
-      </c>
-      <c r="T8">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1302,22 +1432,52 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1325,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1333,119 +1493,93 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>140</v>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12">
+        <v>60</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>137</v>
+      <c r="A14" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s">
-        <v>137</v>
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1453,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1462,22 +1596,22 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1485,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1494,22 +1628,22 @@
         <v>9</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1526,22 +1660,22 @@
         <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1558,22 +1692,22 @@
         <v>9</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1581,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1590,22 +1724,22 @@
         <v>9</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1613,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1622,22 +1756,150 @@
         <v>9</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1650,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,637 +1930,637 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
         <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
         <v>26</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
         <v>38</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
         <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
         <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
         <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
         <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
         <v>50</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
         <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
         <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
         <v>64</v>
-      </c>
-      <c r="B61" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
         <v>66</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
         <v>68</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
         <v>106</v>
-      </c>
-      <c r="B72" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" t="s">
         <v>122</v>
-      </c>
-      <c r="B76" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" t="s">
         <v>124</v>
-      </c>
-      <c r="B77" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
         <v>126</v>
-      </c>
-      <c r="B78" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
         <v>128</v>
-      </c>
-      <c r="B79" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" t="s">
         <v>130</v>
-      </c>
-      <c r="B80" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
         <v>132</v>
-      </c>
-      <c r="B81" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" t="s">
         <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
+++ b/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7440"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
+++ b/src/test/java/com/maax/businessmanager/testdata/Common.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="619">
   <si>
     <t>TestCases</t>
   </si>
@@ -481,6 +481,1398 @@
   </si>
   <si>
     <t>DEC3025</t>
+  </si>
+  <si>
+    <t>Certificateadd</t>
+  </si>
+  <si>
+    <t>Group_Legal_name</t>
+  </si>
+  <si>
+    <t>//*[@id='mainMenu:menuBarEnroll:group']/a/span</t>
+  </si>
+  <si>
+    <t>grouppolicymainmenu</t>
+  </si>
+  <si>
+    <t>//*[@id='mainMenu:menuBarEnroll:group:searchGroup:out']</t>
+  </si>
+  <si>
+    <t>searchgrouplink</t>
+  </si>
+  <si>
+    <t>grouplegalname</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:groupLegalName']</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:showSearch']</t>
+  </si>
+  <si>
+    <t>searchgroupbutton</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:groupTable']/thead/tr/th</t>
+  </si>
+  <si>
+    <t>group-search_table_header</t>
+  </si>
+  <si>
+    <t>group-search_table_data</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:groupTable']/tbody/tr</t>
+  </si>
+  <si>
+    <t>Column_to_search</t>
+  </si>
+  <si>
+    <t>Group Legal Name</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:showMember']</t>
+  </si>
+  <si>
+    <t>//*[@id='memberSearch:incMemberSearch:memberLastName']</t>
+  </si>
+  <si>
+    <t>member_Last_name</t>
+  </si>
+  <si>
+    <t>member_first_name</t>
+  </si>
+  <si>
+    <t>//*[@id='memberSearch:incMemberSearch:memberFirstName']</t>
+  </si>
+  <si>
+    <t>Member_FirstName</t>
+  </si>
+  <si>
+    <t>Member_LastName</t>
+  </si>
+  <si>
+    <t>Member_add_button</t>
+  </si>
+  <si>
+    <t>//*[@id='memberSearch:incMemberSearch:showAdd']</t>
+  </si>
+  <si>
+    <t>member_search_button</t>
+  </si>
+  <si>
+    <t>person_add_button_member</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:addbutton']</t>
+  </si>
+  <si>
+    <t>person_FS_name</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:firstName']</t>
+  </si>
+  <si>
+    <t>person_LS_name</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:lastName']</t>
+  </si>
+  <si>
+    <t>personDOB</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:dateOfBirth']</t>
+  </si>
+  <si>
+    <t>correspondence_laun_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:preferredLang']</t>
+  </si>
+  <si>
+    <t>Adress_type_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:addressType']</t>
+  </si>
+  <si>
+    <t>Province_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:province']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:addressLine1']</t>
+  </si>
+  <si>
+    <t>Adreess_line_1</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:city']</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:postalCode']</t>
+  </si>
+  <si>
+    <t>Member_DOB</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:personTab:0:gender']</t>
+  </si>
+  <si>
+    <t>person_sex_DP</t>
+  </si>
+  <si>
+    <t>Member_Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>correspondence_laun</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Adress_type</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Address_line_1</t>
+  </si>
+  <si>
+    <t>Temple Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>person_add_save_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:client:person:save']</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Jobtitle_Text</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:jobTitle']</t>
+  </si>
+  <si>
+    <t>hiredate</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:hireDate']</t>
+  </si>
+  <si>
+    <t>Employement_type_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:employmentType']</t>
+  </si>
+  <si>
+    <t>Wrk_hours</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:numberOfHoursWeek']</t>
+  </si>
+  <si>
+    <t>Occupationcode_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:occupationCode']</t>
+  </si>
+  <si>
+    <t>RiskFactor_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:legacyOccupationCode']</t>
+  </si>
+  <si>
+    <t>income_type_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:incomeTypeInteger']</t>
+  </si>
+  <si>
+    <t>income_freq_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:frequencyInteger']</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:amount']</t>
+  </si>
+  <si>
+    <t>Employment_type</t>
+  </si>
+  <si>
+    <t>Occupation_code</t>
+  </si>
+  <si>
+    <t>RiskFactor</t>
+  </si>
+  <si>
+    <t>Income_type</t>
+  </si>
+  <si>
+    <t>Income_freq</t>
+  </si>
+  <si>
+    <t>Full Time Salary</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Number_of_hours</t>
+  </si>
+  <si>
+    <t>job_titile</t>
+  </si>
+  <si>
+    <t>SYS ANALYST</t>
+  </si>
+  <si>
+    <t>Sal_amount</t>
+  </si>
+  <si>
+    <t>Member_savestay_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:saveStayBtn']</t>
+  </si>
+  <si>
+    <t>Add_certificate_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:addCertificateBtn']</t>
+  </si>
+  <si>
+    <t>Policy_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:policyCarrier']</t>
+  </si>
+  <si>
+    <t>Overwrite_Employer_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:okEmployerButton']</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:divisionCodeFromPolicy']</t>
+  </si>
+  <si>
+    <t>Division_Dp</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Subdivision</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:className']</t>
+  </si>
+  <si>
+    <t>Class_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:plan']</t>
+  </si>
+  <si>
+    <t>Plan_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:subdivision']</t>
+  </si>
+  <si>
+    <t>Subdivision_DP</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:familyCategoryIntegerValue']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:countryIntegerValue']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:provinceOfBillingIntegerValue']</t>
+  </si>
+  <si>
+    <t>Family_Category_DP</t>
+  </si>
+  <si>
+    <t>Country_DP</t>
+  </si>
+  <si>
+    <t>Province_of_Billing_DP</t>
+  </si>
+  <si>
+    <t>Family_Category</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Province_of_Billing</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Application_date</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:applicationDate']</t>
+  </si>
+  <si>
+    <t>Certiificate_Savestay_Button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:saveStayButton']</t>
+  </si>
+  <si>
+    <t>Certificate_add_ok_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:certNoOk']</t>
+  </si>
+  <si>
+    <t>Enrollstay_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:enrollStayButton']</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>person_add_test</t>
+  </si>
+  <si>
+    <t>//*[@id='mainMenu:menuBarEnroll:contact:out']</t>
+  </si>
+  <si>
+    <t>contact_link</t>
+  </si>
+  <si>
+    <t>//*[@id='login']</t>
+  </si>
+  <si>
+    <t>person_radio</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearch:type:_2']</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearch:lastName']</t>
+  </si>
+  <si>
+    <t>person_search</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearch:search']</t>
+  </si>
+  <si>
+    <t>add_person_button</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:firstName']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:lastName']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:dateOfBirth']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:preferredLang']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:addressType']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:province']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:addressLine1']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:city']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:postalCode']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:personTab:0:gender']</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:client:person:save']</t>
+  </si>
+  <si>
+    <t>01-04-1972</t>
+  </si>
+  <si>
+    <t>Lake City</t>
+  </si>
+  <si>
+    <t>policyoverwrite_popup</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>YA-Construction</t>
+  </si>
+  <si>
+    <t>Risk 1 - YM</t>
+  </si>
+  <si>
+    <t>Certificate_number</t>
+  </si>
+  <si>
+    <t>Certificate_number_textbox</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainCertificate:certificateNumber']</t>
+  </si>
+  <si>
+    <t>//*[@id='certificateSubmenu:certificateEnrollSubMenu:certenrollSubMenuBar:showCertificateMenu']/a/span</t>
+  </si>
+  <si>
+    <t>certificate_menu</t>
+  </si>
+  <si>
+    <t>//*[@id='certificateSubmenu:certificateEnrollSubMenu:certenrollSubMenuBar:showCertificateMenu:showBeneficiary:out']</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'maintainBeneficiary:incMaintainBeneficiary:tree-d-0')]/div[2]/div/div/a</t>
+  </si>
+  <si>
+    <t>member life_beneficiary</t>
+  </si>
+  <si>
+    <t>beneficiary_add</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiary:incMaintainBeneficiary:addButton']</t>
+  </si>
+  <si>
+    <t>beneficiary_info_add</t>
+  </si>
+  <si>
+    <t>//*[@id='beneficiaryInformation:incBeneficiaryInformation:addButton']</t>
+  </si>
+  <si>
+    <t>beneficiary_search_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:beneficiaryCategorySearchButton']</t>
+  </si>
+  <si>
+    <t>beneficairy_ls_name</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:client:searchClient:searchClientTabset:0:searchPerson:lastName']</t>
+  </si>
+  <si>
+    <t>beneficiary_ls</t>
+  </si>
+  <si>
+    <t>beneficiary_select</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:client:searchClient:selectButton']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:client:searchClient:searchClientTabset:0:searchPerson:search']</t>
+  </si>
+  <si>
+    <t>beneficiary_serch_person</t>
+  </si>
+  <si>
+    <t>beneficary_relation</t>
+  </si>
+  <si>
+    <t>beneficary_percentage</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Designated date</t>
+  </si>
+  <si>
+    <t>bene_relation</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:beneficiaryRelationship']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:sharePercentage']</t>
+  </si>
+  <si>
+    <t>bene_percentage</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:designatedOrInactiveDate']</t>
+  </si>
+  <si>
+    <t>designated_date</t>
+  </si>
+  <si>
+    <t>bene_details_save_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiaryInformation:incMaintainBeneficiaryInformation:saveButton']</t>
+  </si>
+  <si>
+    <t>//*[@id='beneficiaryInformation:incBeneficiaryInformation:saveButton']</t>
+  </si>
+  <si>
+    <t>Beneficary_add_save_button</t>
+  </si>
+  <si>
+    <t>Beneficiary_cancel_button</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainBeneficiary:incMaintainBeneficiary:cancelButton']</t>
+  </si>
+  <si>
+    <t>plan_copy_test</t>
+  </si>
+  <si>
+    <t>business_manager_link</t>
+  </si>
+  <si>
+    <t>plan_link</t>
+  </si>
+  <si>
+    <t>//*[@id='businessmanagerGateway:planTree:n-root:AUTO_03197']</t>
+  </si>
+  <si>
+    <t>plan_code_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='searchPlan:incSearchPlan:searchPlanCode']</t>
+  </si>
+  <si>
+    <t>plan_search_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='searchPlan:incSearchPlan:search']</t>
+  </si>
+  <si>
+    <t>plan_copy_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='searchPlan:incSearchPlan:copy']</t>
+  </si>
+  <si>
+    <t>plan_add_code_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:planCode']</t>
+  </si>
+  <si>
+    <t>plan_add_description_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:commonDescription']</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:saveStay']</t>
+  </si>
+  <si>
+    <t>plan_savestay_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:benefit-d-root-c']/div/div[2]/div/div/a</t>
+  </si>
+  <si>
+    <t>plan_benefits</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:editPlanBenefit']</t>
+  </si>
+  <si>
+    <t>plan_benfit_edit_btn</t>
+  </si>
+  <si>
+    <t>provision_add_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:addBenefitProvision']</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:searchProvision']</t>
+  </si>
+  <si>
+    <t>provision_code_tb</t>
+  </si>
+  <si>
+    <t>provision_search_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:commonSearchProvision:provisionCode']</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:commonSearchProvision:selectButton']</t>
+  </si>
+  <si>
+    <t>provision_select_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:commonSearchProvision:searchButton']</t>
+  </si>
+  <si>
+    <t>provision_plan_search_btn</t>
+  </si>
+  <si>
+    <t>provision_status</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:status']</t>
+  </si>
+  <si>
+    <t>add_to_list_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:saveToGridButton']</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:saveStayPlanBenefit']</t>
+  </si>
+  <si>
+    <t>provision_savestay_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='subMenuForm:planNav:managementPlanBenefit']/a/span</t>
+  </si>
+  <si>
+    <t>//*[@id='subMenuForm:planNav:managementPlanBenefit:setStatus:out']</t>
+  </si>
+  <si>
+    <t>management_link</t>
+  </si>
+  <si>
+    <t>ste_status_link</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefitSetStatus:status']</t>
+  </si>
+  <si>
+    <t>plan_benefit_status</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefitSetStatus:effectiveDate']</t>
+  </si>
+  <si>
+    <t>effective_date_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefitSetStatus:saveButton']</t>
+  </si>
+  <si>
+    <t>plan_ben_set_status_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='planBenefit:incPlanBenefit:savePlanBenefit']</t>
+  </si>
+  <si>
+    <t>save_plan_benefit_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:benefitStatus']</t>
+  </si>
+  <si>
+    <t>current_plan_benefit_status_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:status']</t>
+  </si>
+  <si>
+    <t>plan_status_dp</t>
+  </si>
+  <si>
+    <t>plan_save_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='plan:incPlan:savePlanButton']</t>
+  </si>
+  <si>
+    <t>//*[@id='certificateSubmenu:certificateEnrollSubMenu:certenrollSubMenuBar:showCertificateMenu:showBenefitFamilyCat:out']</t>
+  </si>
+  <si>
+    <t>ben_family_cate_link</t>
+  </si>
+  <si>
+    <t>//div[@id='benefitFamilyCategory:tree-d-rt']/div/div/div[2]/div/div/a</t>
+  </si>
+  <si>
+    <t>cert_bene_tree_root</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitFamilyCategory:coveredLivesResults']/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>frst_row_ben_fam_cater_table</t>
+  </si>
+  <si>
+    <t>units_button</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitFamilyCategory:unitsButton']</t>
+  </si>
+  <si>
+    <t>number_of_units</t>
+  </si>
+  <si>
+    <t>//*[@id='units:incUnits:numberOfUnits']</t>
+  </si>
+  <si>
+    <t>//*[@id='units:incUnits:saveButton']</t>
+  </si>
+  <si>
+    <t>ben_family_cancel_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='benefitFamilyCategory:cancelButton']</t>
+  </si>
+  <si>
+    <t>units_save_btn</t>
+  </si>
+  <si>
+    <t>A1C 1E2</t>
+  </si>
+  <si>
+    <t>NKONECHKK</t>
+  </si>
+  <si>
+    <t>NFLD &amp; Labrador</t>
+  </si>
+  <si>
+    <t>000000003</t>
+  </si>
+  <si>
+    <t>000000004</t>
+  </si>
+  <si>
+    <t>E1C 1E2</t>
+  </si>
+  <si>
+    <t>000000005</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>policyadd</t>
+  </si>
+  <si>
+    <t>add_policy_button</t>
+  </si>
+  <si>
+    <t>//*[@id='searchGroup:incSearchGroup:addPolicy']</t>
+  </si>
+  <si>
+    <t>carrier_search_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:searchCarrierBtn']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:incSearchCarrier:carrierCode']</t>
+  </si>
+  <si>
+    <t>carrier_code_tb</t>
+  </si>
+  <si>
+    <t>carrier_search_bttnn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:incSearchCarrier:searchButton']</t>
+  </si>
+  <si>
+    <t>carrier_table_header</t>
+  </si>
+  <si>
+    <t>carrier_table_data</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:incSearchCarrier:carrierTable']/thead/tr/th</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:incSearchCarrier:carrierTable']/tbody/tr</t>
+  </si>
+  <si>
+    <t>Carrier_srch_Column_to_search</t>
+  </si>
+  <si>
+    <t>Carrier Legal Name</t>
+  </si>
+  <si>
+    <t>carrier_select_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:incSearchCarrier:selectButton']</t>
+  </si>
+  <si>
+    <t>pol_effec_date</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:effectiveDate']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:policyContract']</t>
+  </si>
+  <si>
+    <t>pol_code_tb</t>
+  </si>
+  <si>
+    <t>billing_method_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:billingAdminMethod']</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>sales_region_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:salesRegion']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:specifyDesc']</t>
+  </si>
+  <si>
+    <t>policy_desc_tb</t>
+  </si>
+  <si>
+    <t>minor_term_age_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:minorTermAge']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:terminationAgeCalculation']</t>
+  </si>
+  <si>
+    <t>term_age_cal_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:naicsIndustry']</t>
+  </si>
+  <si>
+    <t>industry_dp</t>
+  </si>
+  <si>
+    <t>08-Forestry</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:naicsCategory']</t>
+  </si>
+  <si>
+    <t>category_dp</t>
+  </si>
+  <si>
+    <t>sb_category_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:naicsSubCategory']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:naicsOccupationCode']</t>
+  </si>
+  <si>
+    <t>occup_code_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:adjudicationCountry']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:adjudicationProvince']</t>
+  </si>
+  <si>
+    <t>Renewal_tab</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0.1']/div/table/tbody/tr/td</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:curRenPeriodCount']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:currentRenPeriodType']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:subsequentPeriodCount']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:subsequentPeriodType']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:renAdvPeriodCount']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:renewAdvicePeriodType']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:renReportingPeriodType']</t>
+  </si>
+  <si>
+    <t>Curent_Ren_period_tb</t>
+  </si>
+  <si>
+    <t>Curent_Ren_period_dp</t>
+  </si>
+  <si>
+    <t>sun_renw_period_tb</t>
+  </si>
+  <si>
+    <t>sun_renw_period_dp</t>
+  </si>
+  <si>
+    <t>ren_advice_period_tb</t>
+  </si>
+  <si>
+    <t>ren_advice_period_dp</t>
+  </si>
+  <si>
+    <t>ren_reporting_period_tb</t>
+  </si>
+  <si>
+    <t>ren_reporting_period_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0.2']</t>
+  </si>
+  <si>
+    <t>Certificate_num</t>
+  </si>
+  <si>
+    <t>certi_options</t>
+  </si>
+  <si>
+    <t>Policy_savestay</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:saveStayBtn']</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>081-Timber Tracts</t>
+  </si>
+  <si>
+    <t>0811-Timber Tracts</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyRenewalInfo:renReportingPeriodCount']</t>
+  </si>
+  <si>
+    <t>waiting_period_dp</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyDetails:waitingPeriodInitialEnroll']</t>
+  </si>
+  <si>
+    <t>No Waiting Period</t>
+  </si>
+  <si>
+    <t>Effective_date_tb</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>othnvun</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyCertificateNumberInfo:selectedOption:_2']</t>
+  </si>
+  <si>
+    <t>cert_num_numeric_charc</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyCertificateNumberInfo:maxNumberOfNumeric']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:addPolicyTabSet:0:incPolicyCertificateNumberInfo:startNumeric']</t>
+  </si>
+  <si>
+    <t>cert_num_numeric_fst_ch</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:serviceLevel']</t>
+  </si>
+  <si>
+    <t>service_level</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainPolicy:incMaintainPolicy:showDivSubClass']</t>
+  </si>
+  <si>
+    <t>divsubdclass_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='displayDivSubDivClass:incDisplayDivSubDivClass:divsionAdd']</t>
+  </si>
+  <si>
+    <t>div_add_btn</t>
+  </si>
+  <si>
+    <t>div_code_tb</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:divisionCode']</t>
+  </si>
+  <si>
+    <t>div_desc_tb</t>
+  </si>
+  <si>
+    <t>Sample Division</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:divisionDescription']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:divisonEffectiveDate']</t>
+  </si>
+  <si>
+    <t>div_eff_date_date</t>
+  </si>
+  <si>
+    <t>div_cor_search_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:searchBtn']</t>
+  </si>
+  <si>
+    <t>div_to_search</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:client:searchClient:searchClientTabset:0:searchCorporation:legalName']</t>
+  </si>
+  <si>
+    <t>div_search_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:client:searchClient:searchClientTabset:0:searchCorporation:search']</t>
+  </si>
+  <si>
+    <t>div_cor_search_header</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:client:searchClient:searchCorporateResults']/thead/tr/th</t>
+  </si>
+  <si>
+    <t>div_cor_search_Column_to_search</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>div_cor_search_table_body</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:client:searchClient:searchCorporateResults']/tbody/tr</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:client:searchClient:select']</t>
+  </si>
+  <si>
+    <t>div_select_btn</t>
+  </si>
+  <si>
+    <t>div_save_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainDivision:incMaintainDivision:saveDivisionBtn']</t>
+  </si>
+  <si>
+    <t>//*[@id='displayDivSubDivClass:incDisplayDivSubDivClass:cancel']</t>
+  </si>
+  <si>
+    <t>cancel_divclass_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='displayDivSubDivClass:incDisplayDivSubDivClass:classAdd']</t>
+  </si>
+  <si>
+    <t>class_add_btn</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainClass:incMaintainClass:classCode']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainClass:incMaintainClass:classDescription']</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainClass:incMaintainClass:maintainClassDetails:0:effectiveDate']</t>
+  </si>
+  <si>
+    <t>class_code_tb</t>
+  </si>
+  <si>
+    <t>class_desc_dp</t>
+  </si>
+  <si>
+    <t>class_date</t>
+  </si>
+  <si>
+    <t>//*[@id='maintainClass:incMaintainClass:saveBtn']</t>
+  </si>
+  <si>
+    <t>class_save_btn</t>
+  </si>
+  <si>
+    <t>Sample class description</t>
+  </si>
+  <si>
+    <t>HSCOMM1</t>
+  </si>
+  <si>
+    <t>01: Sample class description</t>
+  </si>
+  <si>
+    <t>01-04-2013</t>
+  </si>
+  <si>
+    <t>Year(s)</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>T1C 1E2</t>
+  </si>
+  <si>
+    <t>01-05-2013</t>
+  </si>
+  <si>
+    <t>01-04-1973</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>V1C 1E2</t>
+  </si>
+  <si>
+    <t>01-05-1976</t>
+  </si>
+  <si>
+    <t>01-05-1972</t>
+  </si>
+  <si>
+    <t>HSCALNOCA: FOR HSA TEST DATA CALE NO CARRY</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Romganaikaloo</t>
+  </si>
+  <si>
+    <t>Saulnier Levesque</t>
+  </si>
+  <si>
+    <t>Happy-New-Year-Too</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>L1C 1E2</t>
+  </si>
+  <si>
+    <t>Trenholm</t>
+  </si>
+  <si>
+    <t>01-07-1970</t>
+  </si>
+  <si>
+    <t>Lake city</t>
+  </si>
+  <si>
+    <t>Maxwell-Robbins</t>
+  </si>
+  <si>
+    <t>02-04-2013</t>
+  </si>
+  <si>
+    <t>HSPOLCLCA2</t>
+  </si>
+  <si>
+    <t>FOR HSA TEST DATA POL  CL CARRY ON</t>
+  </si>
+  <si>
+    <t>Simpelo</t>
+  </si>
+  <si>
+    <t>//*[@id='contactManagerSearchResults:j_id560:addPerson']</t>
+  </si>
+  <si>
+    <t>HSPOL5</t>
+  </si>
+  <si>
+    <t>FOR HSA claim calendar dias</t>
+  </si>
+  <si>
+    <t>HSNKPLN1</t>
+  </si>
+  <si>
+    <t>HSNKPLN2</t>
+  </si>
+  <si>
+    <t>HSNKPLN3</t>
+  </si>
+  <si>
+    <t>HSNKPLN4</t>
+  </si>
+  <si>
+    <t>FOR HSA credit carry Policy Disa NK</t>
+  </si>
+  <si>
+    <t>FOR HSA credit calender disb NK</t>
+  </si>
+  <si>
+    <t>FOR HSA Claim carry policy dias</t>
+  </si>
+  <si>
+    <t>FOR HSA claim carry  calendar dias</t>
+  </si>
+  <si>
+    <t>08-05-2013</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>M@@xtest786</t>
+  </si>
+  <si>
+    <t>PLBKNK</t>
+  </si>
+  <si>
+    <t>SASKBC</t>
+  </si>
+  <si>
+    <t>50103</t>
+  </si>
+  <si>
+    <t>05-Saskatchewan</t>
+  </si>
+  <si>
+    <t>NK SAS TEST POLICY</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>MEDAVIE</t>
+  </si>
+  <si>
+    <t>NKMBCGRP</t>
+  </si>
+  <si>
+    <t>09420</t>
+  </si>
+  <si>
+    <t>01-Atlantic</t>
+  </si>
+  <si>
+    <t>09420 (MEDAVIE)</t>
+  </si>
+  <si>
+    <t>Dhristabelladoux</t>
+  </si>
+  <si>
+    <t>Geliz-Navidad</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobbi-Jo </t>
+  </si>
+  <si>
+    <t>HSTESTABJLS</t>
+  </si>
+  <si>
+    <t>NKPLMBC:NKPLMBC SAMPLE</t>
+  </si>
+  <si>
+    <t>https://172.16.100.218:3443/MAAX/</t>
+  </si>
+  <si>
+    <t>Vargaret-Catherine</t>
   </si>
 </sst>
 </file>
@@ -504,7 +1896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +1912,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -583,6 +1987,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +2345,7 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,6 +2353,38 @@
         <v>153</v>
       </c>
       <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -944,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:AQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,6 +2412,13 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1614,7 +3073,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1646,7 +3105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1678,7 +3137,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +3169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +3201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +3233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1806,7 +3265,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +3297,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1870,7 +3329,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1900,6 +3359,1538 @@
       </c>
       <c r="K25" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD28" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE28" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF28" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI28" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK28" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL28" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM28" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP28" s="11"/>
+    </row>
+    <row r="29" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="T29" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V29" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>4500</v>
+      </c>
+      <c r="AA29" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE29" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH29" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI29" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ29" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK29" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL29" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>100</v>
+      </c>
+      <c r="AN29" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO29" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V30" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="X30" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>4500</v>
+      </c>
+      <c r="AA30" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE30" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF30" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG30" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH30" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="AI30" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="AJ30" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK30" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL30" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>100</v>
+      </c>
+      <c r="AN30" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO30" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="T31" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V31" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W31" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>4500</v>
+      </c>
+      <c r="AA31" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE31" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG31" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH31" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="AI31" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ31" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK31" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL31" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM31" s="14">
+        <v>100</v>
+      </c>
+      <c r="AN31" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO31" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="T32" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="X32" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>4500</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB32" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE32" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG32" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH32" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI32" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ32" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK32" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL32" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM32" s="14">
+        <v>100</v>
+      </c>
+      <c r="AN32" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO32" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="U33" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="W33" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="X33" s="14">
+        <v>40</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>4500</v>
+      </c>
+      <c r="AA33" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE33" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF33" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG33" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH33" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="AI33" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="AJ33" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK33" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL33" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM33" s="14">
+        <v>100</v>
+      </c>
+      <c r="AN33" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AO33" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="15"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="15"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="13"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="21"/>
+      <c r="AL34" s="15"/>
+      <c r="AN34" s="15"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>10001201</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>583</v>
+      </c>
+      <c r="G37" t="s">
+        <v>423</v>
+      </c>
+      <c r="H37" t="s">
+        <v>423</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>213</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>10001201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>553</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H41" t="s">
+        <v>591</v>
+      </c>
+      <c r="I41" t="s">
+        <v>553</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>10001201</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>553</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="H42" t="s">
+        <v>592</v>
+      </c>
+      <c r="I42" t="s">
+        <v>553</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>10001201</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>553</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="H43" t="s">
+        <v>593</v>
+      </c>
+      <c r="I43" t="s">
+        <v>553</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>10001201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>553</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H44" t="s">
+        <v>594</v>
+      </c>
+      <c r="I44" t="s">
+        <v>553</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>10001201</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>553</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H45" t="s">
+        <v>586</v>
+      </c>
+      <c r="I45" t="s">
+        <v>553</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>10001201</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>553</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H46" t="s">
+        <v>582</v>
+      </c>
+      <c r="I46" t="s">
+        <v>553</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC49" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE49" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF49" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH49" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK49" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AL49" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM49" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN49" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="AO49" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AP49" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ49" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>505</v>
+      </c>
+      <c r="E50" t="s">
+        <v>598</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="M50" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>465</v>
+      </c>
+      <c r="R50" t="s">
+        <v>497</v>
+      </c>
+      <c r="S50" t="s">
+        <v>498</v>
+      </c>
+      <c r="T50" t="s">
+        <v>314</v>
+      </c>
+      <c r="U50" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="V50" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="X50" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA50" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC50" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE50" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF50" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG50" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH50" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI50" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ50" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="AK50" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL50" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM50" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN50" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="AO50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ50" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" t="s">
+        <v>598</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>465</v>
+      </c>
+      <c r="R51" t="s">
+        <v>497</v>
+      </c>
+      <c r="S51" t="s">
+        <v>498</v>
+      </c>
+      <c r="T51" t="s">
+        <v>314</v>
+      </c>
+      <c r="U51" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="V51" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="X51" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA51" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC51" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE51" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF51" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG51" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH51" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI51" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="AJ51" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="AK51" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="AL51" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM51" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="AN51" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="AO51" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ51" s="22" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -1910,16 +4901,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2563,7 +5555,1580 @@
         <v>143</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>185</v>
+      </c>
+      <c r="B103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>193</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>214</v>
+      </c>
+      <c r="B112" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>229</v>
+      </c>
+      <c r="B119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>285</v>
+      </c>
+      <c r="B136" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>312</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>317</v>
+      </c>
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>320</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>322</v>
+      </c>
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>324</v>
+      </c>
+      <c r="B141" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>325</v>
+      </c>
+      <c r="B142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>327</v>
+      </c>
+      <c r="B143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>329</v>
+      </c>
+      <c r="B144" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>331</v>
+      </c>
+      <c r="B145" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>334</v>
+      </c>
+      <c r="B146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>337</v>
+      </c>
+      <c r="B147" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>342</v>
+      </c>
+      <c r="B148" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>345</v>
+      </c>
+      <c r="B149" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>347</v>
+      </c>
+      <c r="B150" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>351</v>
+      </c>
+      <c r="B152" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>352</v>
+      </c>
+      <c r="B153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>409</v>
+      </c>
+      <c r="B154" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>411</v>
+      </c>
+      <c r="B155" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>413</v>
+      </c>
+      <c r="B156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>416</v>
+      </c>
+      <c r="B158" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>421</v>
+      </c>
+      <c r="B159" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>419</v>
+      </c>
+      <c r="B160" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>102</v>
+      </c>
+      <c r="B167" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>105</v>
+      </c>
+      <c r="B168" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>292</v>
+      </c>
+      <c r="B169" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>294</v>
+      </c>
+      <c r="B170" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>296</v>
+      </c>
+      <c r="B171" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>298</v>
+      </c>
+      <c r="B172" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>185</v>
+      </c>
+      <c r="B174" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>189</v>
+      </c>
+      <c r="B176" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+      <c r="B182" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>101</v>
+      </c>
+      <c r="B189" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>105</v>
+      </c>
+      <c r="B191" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="B194" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B195" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B196" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B197" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B198" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B199" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B200" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B202" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="B203" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B204" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B205" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B207" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B208" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B209" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="B213" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B214" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B215" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B216" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B217" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="B218" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B219" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>101</v>
+      </c>
+      <c r="B225" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>102</v>
+      </c>
+      <c r="B226" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>105</v>
+      </c>
+      <c r="B227" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>158</v>
+      </c>
+      <c r="B229" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>160</v>
+      </c>
+      <c r="B230" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>161</v>
+      </c>
+      <c r="B231" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>164</v>
+      </c>
+      <c r="B232" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>166</v>
+      </c>
+      <c r="B233" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>167</v>
+      </c>
+      <c r="B234" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>432</v>
+      </c>
+      <c r="B235" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>434</v>
+      </c>
+      <c r="B236" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>437</v>
+      </c>
+      <c r="B237" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>438</v>
+      </c>
+      <c r="B238" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>440</v>
+      </c>
+      <c r="B239" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>441</v>
+      </c>
+      <c r="B240" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>446</v>
+      </c>
+      <c r="B241" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>448</v>
+      </c>
+      <c r="B242" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>451</v>
+      </c>
+      <c r="B243" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>452</v>
+      </c>
+      <c r="B244" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>455</v>
+      </c>
+      <c r="B245" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>458</v>
+      </c>
+      <c r="B246" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>459</v>
+      </c>
+      <c r="B247" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>464</v>
+      </c>
+      <c r="B249" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>467</v>
+      </c>
+      <c r="B250" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>468</v>
+      </c>
+      <c r="B251" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>471</v>
+      </c>
+      <c r="B252" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>275</v>
+      </c>
+      <c r="B253" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>209</v>
+      </c>
+      <c r="B254" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>474</v>
+      </c>
+      <c r="B255" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>483</v>
+      </c>
+      <c r="B256" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>484</v>
+      </c>
+      <c r="B257" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>485</v>
+      </c>
+      <c r="B258" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>486</v>
+      </c>
+      <c r="B259" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>487</v>
+      </c>
+      <c r="B260" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>489</v>
+      </c>
+      <c r="B262" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>490</v>
+      </c>
+      <c r="B263" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>492</v>
+      </c>
+      <c r="B264" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>493</v>
+      </c>
+      <c r="B265" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>494</v>
+      </c>
+      <c r="B266" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>500</v>
+      </c>
+      <c r="B267" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>503</v>
+      </c>
+      <c r="B268" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>507</v>
+      </c>
+      <c r="B269" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>510</v>
+      </c>
+      <c r="B270" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>512</v>
+      </c>
+      <c r="B271" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>514</v>
+      </c>
+      <c r="B272" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>516</v>
+      </c>
+      <c r="B273" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>517</v>
+      </c>
+      <c r="B274" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>519</v>
+      </c>
+      <c r="B275" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>523</v>
+      </c>
+      <c r="B276" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>524</v>
+      </c>
+      <c r="B277" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>526</v>
+      </c>
+      <c r="B278" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>528</v>
+      </c>
+      <c r="B279" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>530</v>
+      </c>
+      <c r="B280" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>534</v>
+      </c>
+      <c r="B281" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>537</v>
+      </c>
+      <c r="B282" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>538</v>
+      </c>
+      <c r="B283" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>541</v>
+      </c>
+      <c r="B284" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>543</v>
+      </c>
+      <c r="B285" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>547</v>
+      </c>
+      <c r="B286" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>548</v>
+      </c>
+      <c r="B287" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>549</v>
+      </c>
+      <c r="B288" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>551</v>
+      </c>
+      <c r="B289" t="s">
+        <v>550</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>